--- a/data/supply_side_data_Exp.xlsx
+++ b/data/supply_side_data_Exp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chriska\Documents\01_modeling\Programming Sandbox\xpress\PMM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\pmm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneratorData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="generator_profile">GeneratorProfiles!$A$1:$C$32</definedName>
     <definedName name="power_plant_data">GeneratorData!$A$1:$U$38</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -454,26 +454,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -520,7 +520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -986,16 +986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1144,19 +1144,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
